--- a/KH_HUE_T07_ClassDiagram_v1.0.xlsx
+++ b/KH_HUE_T07_ClassDiagram_v1.0.xlsx
@@ -555,7 +555,7 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
